--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2561.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2561.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070215953445162</v>
+        <v>1.606343030929565</v>
       </c>
       <c r="B1">
-        <v>1.684517409952796</v>
+        <v>1.391809821128845</v>
       </c>
       <c r="C1">
-        <v>3.671356040884226</v>
+        <v>5.278607845306396</v>
       </c>
       <c r="D1">
-        <v>2.061112610499887</v>
+        <v>3.333710670471191</v>
       </c>
       <c r="E1">
-        <v>0.753695127777093</v>
+        <v>0.5820793509483337</v>
       </c>
     </row>
   </sheetData>
